--- a/revisi/333c831e-b116-45f1-a314-6e1075e318b8.xlsx
+++ b/revisi/333c831e-b116-45f1-a314-6e1075e318b8.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\tesis\revisi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D882F7B-736D-4F77-BA19-C6E5FAE32FB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFA8625-18A7-4DE7-842F-2BAAAFE469DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>No</t>
   </si>
@@ -112,14 +112,51 @@
     <t>Tindah Lanjut</t>
   </si>
   <si>
-    <t>Selain uang, tanggal, dan rumus, sudah</t>
+    <t>Selain uang, tanggal, Perkembangan Society 5.0, Revolusi Industri 4.0, dan rumus, sudah</t>
+  </si>
+  <si>
+    <t>Industri</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Technology Acceptance Model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dan </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hierarchy of Needs</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +166,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -531,7 +576,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,9 +613,12 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -649,6 +697,9 @@
       <c r="B12" t="s">
         <v>12</v>
       </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -766,5 +817,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/revisi/333c831e-b116-45f1-a314-6e1075e318b8.xlsx
+++ b/revisi/333c831e-b116-45f1-a314-6e1075e318b8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\tesis\revisi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFA8625-18A7-4DE7-842F-2BAAAFE469DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B83494-9512-4149-95BD-692759C1BA7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -575,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,7 +691,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" t="s">
